--- a/PrzypadkiTestowe_i_Błędy_-_MrBuggy_7.xlsx
+++ b/PrzypadkiTestowe_i_Błędy_-_MrBuggy_7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Przypadki testowe" sheetId="1" r:id="rId1"/>
@@ -724,13 +724,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF8F9FA"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,7 +971,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -985,7 +985,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1009,13 +1009,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1030,52 +1030,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1085,6 +1046,27 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1393,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,1452 +1391,1464 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="33" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="20" t="s">
+      <c r="B3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="20" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="24">
-        <v>1</v>
-      </c>
-      <c r="C4" s="20" t="s">
+      <c r="B4" s="28">
+        <v>1</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="24">
-        <v>1</v>
-      </c>
-      <c r="G4" s="20" t="s">
+      <c r="E4" s="26"/>
+      <c r="F4" s="28">
+        <v>1</v>
+      </c>
+      <c r="G4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="24">
-        <v>2</v>
-      </c>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="28">
+        <v>2</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="24">
-        <v>2</v>
-      </c>
-      <c r="G5" s="20" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="28">
+        <v>2</v>
+      </c>
+      <c r="G5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" spans="2:8" ht="178.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="33" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="20" t="s">
+      <c r="B8" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="20" t="s">
+      <c r="E8" s="26"/>
+      <c r="F8" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="24">
-        <v>1</v>
-      </c>
-      <c r="C9" s="20" t="s">
+      <c r="B9" s="28">
+        <v>1</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="24">
-        <v>1</v>
-      </c>
-      <c r="G9" s="20" t="s">
+      <c r="E9" s="26"/>
+      <c r="F9" s="28">
+        <v>1</v>
+      </c>
+      <c r="G9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="24">
-        <v>2</v>
-      </c>
-      <c r="C10" s="20" t="s">
+      <c r="B10" s="28">
+        <v>2</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="24">
-        <v>2</v>
-      </c>
-      <c r="G10" s="20" t="s">
+      <c r="E10" s="26"/>
+      <c r="F10" s="28">
+        <v>2</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="24">
+      <c r="B11" s="28">
         <v>3</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="24">
+      <c r="E11" s="26"/>
+      <c r="F11" s="28">
         <v>3</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="24">
+      <c r="B12" s="28">
         <v>4</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="24">
+      <c r="E12" s="26"/>
+      <c r="F12" s="28">
         <v>4</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
     </row>
     <row r="14" spans="2:8" ht="191.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="33" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="20" t="s">
+      <c r="B15" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="20" t="s">
+      <c r="E15" s="26"/>
+      <c r="F15" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="24">
-        <v>1</v>
-      </c>
-      <c r="C16" s="20" t="s">
+      <c r="B16" s="28">
+        <v>1</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="24">
-        <v>1</v>
-      </c>
-      <c r="G16" s="20" t="s">
+      <c r="E16" s="26"/>
+      <c r="F16" s="28">
+        <v>1</v>
+      </c>
+      <c r="G16" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="24">
-        <v>2</v>
-      </c>
-      <c r="C17" s="20" t="s">
+      <c r="B17" s="28">
+        <v>2</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="24">
-        <v>2</v>
-      </c>
-      <c r="G17" s="20" t="s">
+      <c r="E17" s="26"/>
+      <c r="F17" s="28">
+        <v>2</v>
+      </c>
+      <c r="G17" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="22" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="24">
+      <c r="B18" s="28">
         <v>3</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="24">
+      <c r="E18" s="26"/>
+      <c r="F18" s="28">
         <v>3</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="24">
+      <c r="B19" s="28">
         <v>4</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="24">
+      <c r="E19" s="26"/>
+      <c r="F19" s="28">
         <v>4</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
     </row>
     <row r="21" spans="2:8" ht="165.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="33" t="s">
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="35"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="25"/>
     </row>
     <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="20" t="s">
+      <c r="B22" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="20" t="s">
+      <c r="E22" s="30"/>
+      <c r="F22" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="24">
-        <v>1</v>
-      </c>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="28">
+        <v>1</v>
+      </c>
+      <c r="C23" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="27">
-        <v>1</v>
-      </c>
-      <c r="G23" s="20" t="s">
+      <c r="E23" s="30"/>
+      <c r="F23" s="31">
+        <v>1</v>
+      </c>
+      <c r="G23" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="21" t="s">
+      <c r="H23" s="20" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="24">
-        <v>2</v>
-      </c>
-      <c r="C24" s="20" t="s">
+      <c r="B24" s="28">
+        <v>2</v>
+      </c>
+      <c r="C24" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="27">
-        <v>2</v>
-      </c>
-      <c r="G24" s="20" t="s">
+      <c r="E24" s="30"/>
+      <c r="F24" s="31">
+        <v>2</v>
+      </c>
+      <c r="G24" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="22" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="24">
+      <c r="B25" s="28">
         <v>3</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
     </row>
     <row r="26" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="24">
+      <c r="B26" s="28">
         <v>4</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
     </row>
     <row r="27" spans="2:8" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="24">
+      <c r="B27" s="28">
         <v>5</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
     </row>
     <row r="28" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
     </row>
     <row r="29" spans="2:8" ht="140.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="33" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="34"/>
-      <c r="H29" s="35"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="25"/>
     </row>
     <row r="30" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="20" t="s">
+      <c r="B30" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" s="20" t="s">
+      <c r="E30" s="30"/>
+      <c r="F30" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="24">
-        <v>1</v>
-      </c>
-      <c r="C31" s="20" t="s">
+      <c r="B31" s="28">
+        <v>1</v>
+      </c>
+      <c r="C31" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="27">
-        <v>1</v>
-      </c>
-      <c r="G31" s="20" t="s">
+      <c r="E31" s="30"/>
+      <c r="F31" s="31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="H31" s="21" t="s">
+      <c r="H31" s="20" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="24">
-        <v>2</v>
-      </c>
-      <c r="C32" s="20" t="s">
+      <c r="B32" s="28">
+        <v>2</v>
+      </c>
+      <c r="C32" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="27">
-        <v>2</v>
-      </c>
-      <c r="G32" s="20" t="s">
+      <c r="E32" s="30"/>
+      <c r="F32" s="31">
+        <v>2</v>
+      </c>
+      <c r="G32" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H32" s="20" t="s">
+      <c r="H32" s="22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="24">
+      <c r="B33" s="28">
         <v>3</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
     </row>
     <row r="34" spans="2:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="24">
+      <c r="B34" s="28">
         <v>4</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="28"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="32"/>
     </row>
     <row r="35" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="24">
+      <c r="B35" s="28">
         <v>5</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="28"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="28"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="32"/>
     </row>
     <row r="36" spans="2:8" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="24">
+      <c r="B36" s="28">
         <v>6</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
     </row>
     <row r="37" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
     </row>
     <row r="38" spans="2:8" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="33" t="s">
+      <c r="C38" s="24"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="G38" s="34"/>
-      <c r="H38" s="35"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="25"/>
     </row>
     <row r="39" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="20" t="s">
+      <c r="B39" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="26"/>
-      <c r="F39" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H39" s="20" t="s">
+      <c r="E39" s="30"/>
+      <c r="F39" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="24">
-        <v>1</v>
-      </c>
-      <c r="C40" s="20" t="s">
+      <c r="B40" s="28">
+        <v>1</v>
+      </c>
+      <c r="C40" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E40" s="26"/>
-      <c r="F40" s="27">
-        <v>1</v>
-      </c>
-      <c r="G40" s="20" t="s">
+      <c r="E40" s="30"/>
+      <c r="F40" s="31">
+        <v>1</v>
+      </c>
+      <c r="G40" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H40" s="21" t="s">
+      <c r="H40" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="24">
-        <v>2</v>
-      </c>
-      <c r="C41" s="20" t="s">
+      <c r="B41" s="28">
+        <v>2</v>
+      </c>
+      <c r="C41" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E41" s="26"/>
-      <c r="F41" s="27">
-        <v>2</v>
-      </c>
-      <c r="G41" s="20" t="s">
+      <c r="E41" s="30"/>
+      <c r="F41" s="31">
+        <v>2</v>
+      </c>
+      <c r="G41" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="20" t="s">
+      <c r="H41" s="22" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="24">
+      <c r="B42" s="28">
         <v>3</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
     </row>
     <row r="43" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="24">
+      <c r="B43" s="28">
         <v>4</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="D43" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
     </row>
     <row r="44" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="24">
+      <c r="B44" s="28">
         <v>5</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
     </row>
     <row r="45" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="24">
+      <c r="B45" s="28">
         <v>6</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
     </row>
     <row r="46" spans="2:8" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="24">
+      <c r="B46" s="28">
         <v>7</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
     </row>
     <row r="47" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
     </row>
     <row r="48" spans="2:8" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="34"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="33" t="s">
+      <c r="C48" s="24"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="G48" s="34"/>
-      <c r="H48" s="35"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="25"/>
     </row>
     <row r="49" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="20" t="s">
+      <c r="B49" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="26"/>
-      <c r="F49" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G49" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H49" s="20" t="s">
+      <c r="E49" s="30"/>
+      <c r="F49" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="24">
-        <v>1</v>
-      </c>
-      <c r="C50" s="20" t="s">
+      <c r="B50" s="28">
+        <v>1</v>
+      </c>
+      <c r="C50" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="D50" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E50" s="26"/>
-      <c r="F50" s="27">
-        <v>1</v>
-      </c>
-      <c r="G50" s="20" t="s">
+      <c r="E50" s="30"/>
+      <c r="F50" s="31">
+        <v>1</v>
+      </c>
+      <c r="G50" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H50" s="21" t="s">
+      <c r="H50" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="24">
-        <v>2</v>
-      </c>
-      <c r="C51" s="20" t="s">
+      <c r="B51" s="28">
+        <v>2</v>
+      </c>
+      <c r="C51" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E51" s="26"/>
-      <c r="F51" s="27">
-        <v>2</v>
-      </c>
-      <c r="G51" s="20" t="s">
+      <c r="E51" s="30"/>
+      <c r="F51" s="31">
+        <v>2</v>
+      </c>
+      <c r="G51" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H51" s="20" t="s">
+      <c r="H51" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="24">
-        <v>2</v>
-      </c>
-      <c r="C52" s="20" t="s">
+      <c r="B52" s="28">
+        <v>2</v>
+      </c>
+      <c r="C52" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D52" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
     </row>
     <row r="53" spans="2:8" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
     </row>
     <row r="54" spans="2:8" ht="146.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="C54" s="34"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="33" t="s">
+      <c r="C54" s="24"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="G54" s="34"/>
-      <c r="H54" s="35"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="25"/>
     </row>
     <row r="55" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="20" t="s">
+      <c r="B55" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E55" s="26"/>
-      <c r="F55" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G55" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H55" s="20" t="s">
+      <c r="E55" s="30"/>
+      <c r="F55" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H55" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="24">
-        <v>1</v>
-      </c>
-      <c r="C56" s="20" t="s">
+      <c r="B56" s="28">
+        <v>1</v>
+      </c>
+      <c r="C56" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="D56" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E56" s="26"/>
-      <c r="F56" s="27">
-        <v>1</v>
-      </c>
-      <c r="G56" s="20" t="s">
+      <c r="E56" s="30"/>
+      <c r="F56" s="31">
+        <v>1</v>
+      </c>
+      <c r="G56" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H56" s="21" t="s">
+      <c r="H56" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="24">
-        <v>2</v>
-      </c>
-      <c r="C57" s="20" t="s">
+      <c r="B57" s="28">
+        <v>2</v>
+      </c>
+      <c r="C57" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="E57" s="26"/>
-      <c r="F57" s="27">
-        <v>2</v>
-      </c>
-      <c r="G57" s="20" t="s">
+      <c r="E57" s="30"/>
+      <c r="F57" s="31">
+        <v>2</v>
+      </c>
+      <c r="G57" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H57" s="20" t="s">
+      <c r="H57" s="22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="24">
+      <c r="B58" s="28">
         <v>3</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="D58" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E58" s="26"/>
-      <c r="F58" s="27">
+      <c r="E58" s="30"/>
+      <c r="F58" s="31">
         <v>3</v>
       </c>
-      <c r="G58" s="21" t="s">
+      <c r="G58" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H58" s="21" t="s">
+      <c r="H58" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="24">
+      <c r="B59" s="28">
         <v>4</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D59" s="30" t="s">
+      <c r="D59" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E59" s="26"/>
-      <c r="F59" s="27">
+      <c r="E59" s="30"/>
+      <c r="F59" s="31">
         <v>5</v>
       </c>
-      <c r="G59" s="21" t="s">
+      <c r="G59" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="H59" s="12" t="s">
+      <c r="H59" s="21" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="24">
+      <c r="B60" s="28">
         <v>5</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="20" t="s">
+      <c r="D60" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E60" s="26"/>
-      <c r="F60" s="27">
+      <c r="E60" s="30"/>
+      <c r="F60" s="31">
         <v>6</v>
       </c>
-      <c r="G60" s="21" t="s">
+      <c r="G60" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H60" s="31" t="s">
+      <c r="H60" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="24">
+      <c r="B61" s="28">
         <v>6</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="D61" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
     </row>
     <row r="62" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
     </row>
     <row r="63" spans="2:8" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="33" t="s">
+      <c r="B63" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C63" s="34"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="33" t="s">
+      <c r="C63" s="24"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="G63" s="34"/>
-      <c r="H63" s="35"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="25"/>
     </row>
     <row r="64" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" s="20" t="s">
+      <c r="B64" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E64" s="26"/>
-      <c r="F64" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G64" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H64" s="20" t="s">
+      <c r="E64" s="30"/>
+      <c r="F64" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G64" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H64" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="65" spans="2:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="24">
-        <v>1</v>
-      </c>
-      <c r="C65" s="20" t="s">
+      <c r="B65" s="28">
+        <v>1</v>
+      </c>
+      <c r="C65" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D65" s="21" t="s">
+      <c r="D65" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E65" s="26"/>
-      <c r="F65" s="27">
-        <v>1</v>
-      </c>
-      <c r="G65" s="20" t="s">
+      <c r="E65" s="30"/>
+      <c r="F65" s="31">
+        <v>1</v>
+      </c>
+      <c r="G65" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H65" s="21" t="s">
+      <c r="H65" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="66" spans="2:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="24">
-        <v>2</v>
-      </c>
-      <c r="C66" s="20" t="s">
+      <c r="B66" s="28">
+        <v>2</v>
+      </c>
+      <c r="C66" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D66" s="20" t="s">
+      <c r="D66" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E66" s="26"/>
-      <c r="F66" s="27">
-        <v>2</v>
-      </c>
-      <c r="G66" s="20" t="s">
+      <c r="E66" s="30"/>
+      <c r="F66" s="31">
+        <v>2</v>
+      </c>
+      <c r="G66" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="H66" s="20" t="s">
+      <c r="H66" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="67" spans="2:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="24">
+      <c r="B67" s="28">
         <v>3</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D67" s="21" t="s">
+      <c r="D67" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E67" s="26"/>
-      <c r="F67" s="27">
+      <c r="E67" s="30"/>
+      <c r="F67" s="31">
         <v>3</v>
       </c>
-      <c r="G67" s="20" t="s">
+      <c r="G67" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="H67" s="21" t="s">
+      <c r="H67" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="24">
+      <c r="B68" s="28">
         <v>5</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D68" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E68" s="26"/>
-      <c r="F68" s="27">
+      <c r="E68" s="30"/>
+      <c r="F68" s="31">
         <v>4</v>
       </c>
-      <c r="G68" s="20" t="s">
+      <c r="G68" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H68" s="20" t="s">
+      <c r="H68" s="22" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="24">
+      <c r="B69" s="28">
         <v>6</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D69" s="31" t="s">
+      <c r="D69" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
     </row>
     <row r="70" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
     </row>
     <row r="71" spans="2:8" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="36" t="s">
+      <c r="B71" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C71" s="37"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="33" t="s">
+      <c r="C71" s="24"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="G71" s="34"/>
-      <c r="H71" s="35"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="25"/>
     </row>
     <row r="72" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" s="20" t="s">
+      <c r="B72" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="26"/>
-      <c r="F72" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G72" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H72" s="20" t="s">
+      <c r="E72" s="30"/>
+      <c r="F72" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H72" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="24">
-        <v>1</v>
-      </c>
-      <c r="C73" s="20" t="s">
+      <c r="B73" s="28">
+        <v>1</v>
+      </c>
+      <c r="C73" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D73" s="21" t="s">
+      <c r="D73" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E73" s="26"/>
-      <c r="F73" s="27">
-        <v>1</v>
-      </c>
-      <c r="G73" s="20" t="s">
+      <c r="E73" s="30"/>
+      <c r="F73" s="31">
+        <v>1</v>
+      </c>
+      <c r="G73" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H73" s="21" t="s">
+      <c r="H73" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="74" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="24">
-        <v>2</v>
-      </c>
-      <c r="C74" s="20" t="s">
+      <c r="B74" s="28">
+        <v>2</v>
+      </c>
+      <c r="C74" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D74" s="20" t="s">
+      <c r="D74" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E74" s="26"/>
-      <c r="F74" s="27">
-        <v>2</v>
-      </c>
-      <c r="G74" s="20" t="s">
+      <c r="E74" s="30"/>
+      <c r="F74" s="31">
+        <v>2</v>
+      </c>
+      <c r="G74" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H74" s="20" t="s">
+      <c r="H74" s="22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="24">
+      <c r="B75" s="28">
         <v>3</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D75" s="21" t="s">
+      <c r="D75" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E75" s="26"/>
-      <c r="F75" s="27">
+      <c r="E75" s="30"/>
+      <c r="F75" s="31">
         <v>3</v>
       </c>
-      <c r="G75" s="20" t="s">
+      <c r="G75" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="H75" s="21" t="s">
+      <c r="H75" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="204.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="24">
+      <c r="B76" s="28">
         <v>4</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="D76" s="30" t="s">
+      <c r="D76" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="E76" s="26"/>
-      <c r="F76" s="27">
+      <c r="E76" s="30"/>
+      <c r="F76" s="31">
         <v>4</v>
       </c>
-      <c r="G76" s="20" t="s">
+      <c r="G76" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H76" s="20" t="s">
+      <c r="H76" s="22" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="32"/>
     </row>
     <row r="78" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="32"/>
     </row>
     <row r="79" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
     </row>
     <row r="80" spans="2:8" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="33" t="s">
+      <c r="B80" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C80" s="34"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="33" t="s">
+      <c r="C80" s="24"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="G80" s="34"/>
-      <c r="H80" s="35"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="25"/>
     </row>
     <row r="81" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81" s="20" t="s">
+      <c r="B81" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E81" s="26"/>
-      <c r="F81" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G81" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H81" s="20" t="s">
+      <c r="E81" s="30"/>
+      <c r="F81" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G81" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H81" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="24">
-        <v>1</v>
-      </c>
-      <c r="C82" s="20" t="s">
+      <c r="B82" s="28">
+        <v>1</v>
+      </c>
+      <c r="C82" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D82" s="21" t="s">
+      <c r="D82" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="E82" s="26"/>
-      <c r="F82" s="27">
-        <v>1</v>
-      </c>
-      <c r="G82" s="20" t="s">
+      <c r="E82" s="30"/>
+      <c r="F82" s="31">
+        <v>1</v>
+      </c>
+      <c r="G82" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H82" s="21" t="s">
+      <c r="H82" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="24">
-        <v>2</v>
-      </c>
-      <c r="C83" s="20" t="s">
+      <c r="B83" s="28">
+        <v>2</v>
+      </c>
+      <c r="C83" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D83" s="20" t="s">
+      <c r="D83" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="E83" s="26"/>
-      <c r="F83" s="27">
-        <v>2</v>
-      </c>
-      <c r="G83" s="20" t="s">
+      <c r="E83" s="30"/>
+      <c r="F83" s="31">
+        <v>2</v>
+      </c>
+      <c r="G83" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="H83" s="20" t="s">
+      <c r="H83" s="22" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="24">
+      <c r="B84" s="28">
         <v>3</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D84" s="12" t="s">
+      <c r="D84" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
     </row>
     <row r="85" spans="2:8" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="24">
+      <c r="B85" s="28">
         <v>4</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="C85" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D85" s="21" t="s">
+      <c r="D85" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="32"/>
     </row>
     <row r="86" spans="2:8" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="24">
+      <c r="B86" s="28">
         <v>5</v>
       </c>
-      <c r="C86" s="21" t="s">
+      <c r="C86" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="21" t="s">
+      <c r="D86" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="F38:H38"/>
     <mergeCell ref="B71:D71"/>
     <mergeCell ref="F71:H71"/>
     <mergeCell ref="B80:D80"/>
@@ -2865,18 +2859,6 @@
     <mergeCell ref="F54:H54"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="F63:H63"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2887,7 +2869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
